--- a/static/excel/销售人员导入模版.xlsx
+++ b/static/excel/销售人员导入模版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ypzhuang/work/projects/sts_projects/BQSVN/开发/模板数据/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BQ\开发\模板数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0C4C5B1D-292A-F34B-B5F8-1F9A1743CED7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{097CCDE9-5414-4A20-AB91-52F4E3311E29}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="8040" windowWidth="20480" windowHeight="14160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14352" windowHeight="3576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>所属团队</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,6 +80,22 @@
   </si>
   <si>
     <t>yuchun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应职级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -425,18 +441,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="5" width="13.83203125" customWidth="1"/>
+    <col min="4" max="6" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -444,63 +460,75 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3">
         <v>15623598264</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3">
         <v>17612161114</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>12345678</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
         <v>17602188231</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>12345678</v>
       </c>
     </row>

--- a/static/excel/销售人员导入模版.xlsx
+++ b/static/excel/销售人员导入模版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BQ\开发\模板数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{097CCDE9-5414-4A20-AB91-52F4E3311E29}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B015752E-EE34-407E-82C0-0E7BB9A4543D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14352" windowHeight="3576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,112 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>zsf</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E4239E64-2065-4DF9-8BCA-4D4FF3752FB1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>温馨小提示:
+销售姓名不要超过50个字符喔！</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4F3A21BD-ECD2-43D0-A279-80BE91A33BD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>温馨小提示:所属团队不要超过20个字符喔！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3AA5C3BC-281C-468C-886C-3EE2D40B0D70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>温馨小提示喔:
+用户名不要重复哟！需要输入4-50个字符喔！</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{DBBFC4A6-08A1-4478-9F97-CB46D86B61A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>温馨小提示喔:
+密码需要输入6-12个字符喔！</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
@@ -42,60 +148,60 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应职级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>高原</t>
   </si>
   <si>
+    <t>大数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaoyuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>刘龙</t>
   </si>
   <si>
+    <t>Ken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>liulong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>许玉纯</t>
   </si>
   <si>
-    <t>大数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gaoyuan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>liulong</t>
+    <t>CEO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>yuchun</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应职级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,6 +237,21 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -440,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -460,33 +581,33 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="3">
         <v>15623598264</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3">
         <v>12345678</v>
@@ -494,19 +615,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
         <v>17612161114</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3">
         <v>12345678</v>
@@ -514,19 +635,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3">
         <v>17602188231</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3">
         <v>12345678</v>
@@ -535,6 +656,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/static/excel/销售人员导入模版.xlsx
+++ b/static/excel/销售人员导入模版.xlsx
@@ -1,47 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BQ\开发\模板数据\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B015752E-EE34-407E-82C0-0E7BB9A4543D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsf</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E4239E64-2065-4DF9-8BCA-4D4FF3752FB1}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>温馨小提示:
@@ -50,9 +34,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -60,30 +42,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4F3A21BD-ECD2-43D0-A279-80BE91A33BD4}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>温馨小提示:所属团队不要超过20个字符喔！</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3AA5C3BC-281C-468C-886C-3EE2D40B0D70}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>温馨小提示喔:
@@ -92,9 +70,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -102,15 +78,36 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{DBBFC4A6-08A1-4478-9F97-CB46D86B61A8}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>温馨小提示喔:
+用户名不要重复哟！需要输入4-50个字符喔！</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>温馨小提示喔:
@@ -119,9 +116,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -134,87 +129,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+  <si>
+    <t>销售姓名</t>
+  </si>
   <si>
     <t>所属团队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应职级</t>
   </si>
   <si>
     <t>手机号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信号</t>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应职级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高原</t>
+  </si>
+  <si>
+    <t>大数据</t>
   </si>
   <si>
     <t>经理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaoyuan</t>
+  </si>
+  <si>
+    <t>wxgaoyuan</t>
+  </si>
+  <si>
+    <t>刘龙</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>liulong</t>
+  </si>
+  <si>
+    <t>许玉纯</t>
   </si>
   <si>
     <t>ken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高原</t>
-  </si>
-  <si>
-    <t>大数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gaoyuan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘龙</t>
-  </si>
-  <si>
-    <t>Ken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>liulong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>许玉纯</t>
   </si>
   <si>
     <t>CEO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>yuchun</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxyuchun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -222,14 +216,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -237,34 +223,355 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian (正文)"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -272,28 +579,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -342,7 +935,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -377,7 +970,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -551,112 +1144,117 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.9076923076923" defaultRowHeight="15.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="6" width="13.81640625" customWidth="1"/>
+    <col min="4" max="6" width="13.8153846153846" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>15623598264</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4">
         <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
         <v>17612161114</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
         <v>12345678</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3">
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4">
         <v>17602188231</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4">
         <v>12345678</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>